--- a/DATA_goal/Junction_Flooding_259.xlsx
+++ b/DATA_goal/Junction_Flooding_259.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41691.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>18.35</v>
+        <v>1.84</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.23</v>
+        <v>1.22</v>
       </c>
       <c r="D2" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AF2" s="4" t="n">
         <v>4.02</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>39.03</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>31.15</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>45.32</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>15.36</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>211.24</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>39.91</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>13.26</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>26.19</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>23.08</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>15.87</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>40.18</v>
-      </c>
       <c r="AG2" s="4" t="n">
-        <v>7.24</v>
+        <v>0.72</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.57</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41691.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>26.35</v>
+        <v>2.63</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>21.1</v>
+        <v>2.11</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.6</v>
+        <v>0.96</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>38.03</v>
+        <v>3.8</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>14.78</v>
+        <v>1.48</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.3</v>
+        <v>0.63</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.53</v>
+        <v>1.05</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.96</v>
+        <v>1.1</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.4</v>
+        <v>1.34</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.34</v>
+        <v>0.83</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>138.04</v>
+        <v>13.8</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>26.77</v>
+        <v>2.68</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.81</v>
+        <v>0.88</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>17.62</v>
+        <v>1.76</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.1</v>
+        <v>0.91</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.38</v>
+        <v>1.84</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>34.7</v>
+        <v>3.47</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41691.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>20.56</v>
+        <v>2.06</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.98</v>
+        <v>1.5</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.46</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>44.64</v>
+        <v>4.46</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>36.4</v>
+        <v>3.64</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>16.18</v>
+        <v>1.62</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>61.14</v>
+        <v>6.11</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>24.9</v>
+        <v>2.49</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.96</v>
+        <v>1.1</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.2</v>
+        <v>1.62</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>17.91</v>
+        <v>1.79</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>18.82</v>
+        <v>1.88</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.09</v>
+        <v>1.61</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>22.82</v>
+        <v>2.28</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.66</v>
+        <v>1.37</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>237.61</v>
+        <v>23.76</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>44.97</v>
+        <v>4.5</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.85</v>
+        <v>1.49</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>30.1</v>
+        <v>3.01</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.74</v>
+        <v>1.57</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.53</v>
+        <v>0.25</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>29.92</v>
+        <v>2.99</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>13.75</v>
+        <v>1.38</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>18.73</v>
+        <v>1.87</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>55.43</v>
+        <v>5.54</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.31</v>
+        <v>0.83</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>18.57</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41691.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.83</v>
+        <v>1.88</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>40.92</v>
+        <v>4.09</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.43</v>
+        <v>3.34</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.82</v>
+        <v>1.48</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>58.28</v>
+        <v>5.83</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.8</v>
+        <v>2.28</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.09</v>
+        <v>1.01</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.42</v>
+        <v>1.64</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.29</v>
+        <v>1.73</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.73</v>
+        <v>0.47</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.74</v>
+        <v>1.47</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.94</v>
+        <v>2.09</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.48</v>
+        <v>1.25</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>217.01</v>
+        <v>21.7</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>41.24</v>
+        <v>4.12</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.6</v>
+        <v>1.36</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>27.65</v>
+        <v>2.77</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.47</v>
+        <v>1.45</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.25</v>
+        <v>0.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.18</v>
+        <v>2.82</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.02</v>
+        <v>1.2</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.69</v>
+        <v>1.07</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.56</v>
+        <v>1.26</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.2</v>
+        <v>1.72</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>52.92</v>
+        <v>5.29</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.01</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41691.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3.84</v>
+        <v>0.38</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>9.49</v>
+        <v>0.95</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>4.31</v>
+        <v>0.43</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>21.98</v>
+        <v>2.2</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>6.63</v>
+        <v>0.66</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>2.9</v>
+        <v>0.29</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>4.11</v>
+        <v>0.41</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>4.77</v>
+        <v>0.48</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>4.98</v>
+        <v>0.5</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>3.78</v>
+        <v>0.38</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>57.96</v>
+        <v>5.8</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>12.25</v>
+        <v>1.22</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>4.16</v>
+        <v>0.42</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>20.3</v>
+        <v>2.03</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>2.15</v>
+        <v>0.21</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>4.95</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41691.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>15.95</v>
+        <v>1.6</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>11.76</v>
+        <v>1.18</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>34.68</v>
+        <v>3.47</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>28.38</v>
+        <v>2.84</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>12.55</v>
+        <v>1.26</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>46.14</v>
+        <v>4.61</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>19.31</v>
+        <v>1.93</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>8.56</v>
+        <v>0.86</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>12.67</v>
+        <v>1.27</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>13.92</v>
+        <v>1.39</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>14.68</v>
+        <v>1.47</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.01</v>
+        <v>0.4</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>12.48</v>
+        <v>1.25</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>17.74</v>
+        <v>1.77</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>10.53</v>
+        <v>1.05</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>182.65</v>
+        <v>18.26</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>34.81</v>
+        <v>3.48</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>23.39</v>
+        <v>2.34</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>12.28</v>
+        <v>1.23</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.85</v>
+        <v>0.19</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>22.65</v>
+        <v>2.27</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>10.18</v>
+        <v>1.02</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>10.61</v>
+        <v>1.06</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>14.6</v>
+        <v>1.46</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>41.61</v>
+        <v>4.16</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>6.48</v>
+        <v>0.65</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>14.4</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41691.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="X8" s="4" t="n">
         <v>0.53</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>24.46</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="R8" s="4" t="n">
+      <c r="Y8" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AA8" s="4" t="n">
         <v>0.44</v>
       </c>
-      <c r="S8" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>10.22</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>4.41</v>
-      </c>
       <c r="AB8" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>4.65</v>
+        <v>0.46</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>22.47</v>
+        <v>2.25</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41691.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>3.01</v>
+        <v>0.3</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>9.18</v>
+        <v>0.92</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>3.33</v>
+        <v>0.33</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>15.19</v>
+        <v>1.52</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>3.21</v>
+        <v>0.32</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>2.89</v>
+        <v>0.29</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>43.04</v>
+        <v>4.3</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>3.05</v>
+        <v>0.31</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>6.21</v>
+        <v>0.62</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>3.22</v>
+        <v>0.32</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>7.07</v>
+        <v>0.71</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>2.45</v>
+        <v>0.24</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>3.86</v>
+        <v>0.39</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>13.89</v>
+        <v>1.39</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41691.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E10" s="4" t="n">
         <v>0.27</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>2.71</v>
-      </c>
       <c r="F10" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="R10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="U10" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="S10" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>2.97</v>
-      </c>
       <c r="V10" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>1.97</v>
+        <v>0.2</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>3.05</v>
+        <v>0.3</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>6.38</v>
+        <v>0.64</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_259.xlsx
+++ b/DATA_goal/Junction_Flooding_259.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,37 +443,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41691.34027777778</v>
+        <v>44940.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.84</v>
+        <v>0.43</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.22</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.12</v>
+        <v>0.89</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.44</v>
+        <v>0.45</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.53</v>
+        <v>0.92</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.22</v>
+        <v>0.59</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.92</v>
+        <v>0.25</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.38</v>
+        <v>0.6</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.54</v>
+        <v>0.74</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.6</v>
+        <v>0.43</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.46</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.44</v>
+        <v>0.34</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2</v>
+        <v>0.57</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.23</v>
+        <v>0.3</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>0.01</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>21.12</v>
+        <v>5.46</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.99</v>
+        <v>1.11</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.33</v>
+        <v>0.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.62</v>
+        <v>0.66</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.33</v>
+        <v>0.49</v>
       </c>
       <c r="Y2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AA2" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="Z2" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.17</v>
-      </c>
       <c r="AB2" s="4" t="n">
-        <v>1.06</v>
+        <v>0.52</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.59</v>
+        <v>0.64</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.02</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.02</v>
+        <v>0.72</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.72</v>
+        <v>0.2</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.66</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41691.34722222222</v>
+        <v>44940.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.22</v>
+        <v>2.12</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.84</v>
+        <v>1.67</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.63</v>
+        <v>4.63</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.11</v>
+        <v>3.86</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.96</v>
+        <v>1.71</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.8</v>
+        <v>5.95</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.48</v>
+        <v>2.6</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.63</v>
+        <v>1.17</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.92</v>
+        <v>1.83</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.05</v>
+        <v>2.02</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.1</v>
+        <v>1.97</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.31</v>
+        <v>0.51</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.95</v>
+        <v>1.65</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.34</v>
+        <v>2.42</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.83</v>
+        <v>1.39</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>13.8</v>
+        <v>24.98</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.68</v>
+        <v>4.71</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.88</v>
+        <v>1.51</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.76</v>
+        <v>3.16</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.91</v>
+        <v>1.73</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.84</v>
+        <v>3.07</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.78</v>
+        <v>1.36</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.71</v>
+        <v>1.31</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.83</v>
+        <v>1.38</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.09</v>
+        <v>2.06</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.47</v>
+        <v>5.38</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.48</v>
+        <v>0.9</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.1</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41691.35416666666</v>
+        <v>44940.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.06</v>
+        <v>1.7</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.46</v>
+        <v>3.72</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.64</v>
+        <v>3.09</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.11</v>
+        <v>5.37</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.49</v>
+        <v>2.09</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.88</v>
+        <v>1.58</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.61</v>
+        <v>1.32</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.28</v>
+        <v>1.94</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.37</v>
+        <v>1.12</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>23.76</v>
+        <v>19.85</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.5</v>
+        <v>3.78</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.49</v>
+        <v>1.21</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.01</v>
+        <v>2.54</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.99</v>
+        <v>2.65</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.38</v>
+        <v>1.11</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.87</v>
+        <v>1.63</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.54</v>
+        <v>4.87</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.86</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41691.36111111111</v>
+        <v>44940.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.88</v>
+        <v>0.6</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="U5" s="4" t="n">
         <v>1.38</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>4.12</v>
-      </c>
       <c r="V5" s="4" t="n">
-        <v>1.36</v>
+        <v>0.42</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.77</v>
+        <v>0.92</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.45</v>
+        <v>0.52</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.82</v>
+        <v>1.13</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.2</v>
+        <v>0.39</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.07</v>
+        <v>0.4</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.26</v>
+        <v>0.39</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.72</v>
+        <v>0.61</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.29</v>
+        <v>2.15</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.27</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.7</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41691.36805555555</v>
+        <v>44940.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.55</v>
+        <v>15.69</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.38</v>
+        <v>12.06</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.66</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.19</v>
+        <v>34.21</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.95</v>
+        <v>28.4</v>
       </c>
       <c r="G6" s="4" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>46.06</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S6" s="4" t="n">
         <v>0.43</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="T6" s="4" t="n">
-        <v>5.8</v>
+        <v>181.37</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.22</v>
+        <v>34.56</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.4</v>
+        <v>11.21</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>23.31</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.42</v>
+        <v>12.56</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.08</v>
+        <v>1.64</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.01</v>
+        <v>22.92</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.35</v>
+        <v>10.03</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.32</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.37</v>
+        <v>10.3</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.5</v>
+        <v>14.83</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.03</v>
+        <v>41.49</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.21</v>
+        <v>6.61</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41691.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41691.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41691.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41691.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41691.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>14.39</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>1.65</v>
+        <v>14.2</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_259.xlsx
+++ b/DATA_goal/Junction_Flooding_259.xlsx
@@ -447,11 +447,11 @@
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -469,13 +469,13 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44940.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1</v>
+        <v>10.02</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.85</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.05</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>5.46</v>
+        <v>54.64</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.16</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44940.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.12</v>
+        <v>21.21</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.67</v>
+        <v>16.66</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.63</v>
+        <v>46.31</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.86</v>
+        <v>38.61</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.71</v>
+        <v>17.09</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.95</v>
+        <v>59.46</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.6</v>
+        <v>26.01</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.68</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.83</v>
+        <v>18.33</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.02</v>
+        <v>20.22</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.97</v>
+        <v>19.67</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.12</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.48</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.42</v>
+        <v>24.18</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.92</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>24.98</v>
+        <v>249.81</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.71</v>
+        <v>47.14</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.1</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.16</v>
+        <v>31.59</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.73</v>
+        <v>17.31</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.28</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.07</v>
+        <v>30.74</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.62</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.31</v>
+        <v>13.15</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.38</v>
+        <v>13.84</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.06</v>
+        <v>20.56</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.38</v>
+        <v>53.85</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.9</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.93</v>
+        <v>19.29</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44940.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.7</v>
+        <v>17.03</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.25</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.72</v>
+        <v>37.16</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.09</v>
+        <v>30.92</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.65</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.37</v>
+        <v>53.68</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.09</v>
+        <v>20.86</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.45</v>
+        <v>14.54</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.6</v>
+        <v>15.99</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.78</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.14</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.23</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.94</v>
+        <v>19.37</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.17</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>19.85</v>
+        <v>198.46</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.78</v>
+        <v>37.83</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.12</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.54</v>
+        <v>25.41</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.38</v>
+        <v>13.81</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.65</v>
+        <v>26.49</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.91</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.36</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.14</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.34</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.87</v>
+        <v>48.75</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.22</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.44</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44940.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.88</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>23.48</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>6.69</v>
+        <v>66.92</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.82</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.24</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.16</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.25</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.89</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.93</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.08</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.15</v>
+        <v>21.51</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_259.xlsx
+++ b/DATA_goal/Junction_Flooding_259.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44940.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.35</v>
+        <v>4.347</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.03</v>
+        <v>5.032</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.78</v>
+        <v>0.777</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.02</v>
+        <v>10.022</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>8.94</v>
+        <v>8.942</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.483</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>9.15</v>
+        <v>9.151999999999999</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>5.85</v>
+        <v>5.852</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.5</v>
+        <v>2.498</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.4</v>
+        <v>7.398</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.26</v>
+        <v>4.257</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.37</v>
+        <v>3.371</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.74</v>
+        <v>5.736</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.05</v>
+        <v>3.045</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.14</v>
+        <v>0.138</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.23</v>
+        <v>0.227</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>54.64</v>
+        <v>54.637</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>11.07</v>
+        <v>11.069</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.96</v>
+        <v>2.959</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.91</v>
+        <v>4.913</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.755</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.64</v>
+        <v>5.641</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.177</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.52</v>
+        <v>2.517</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.42</v>
+        <v>6.419</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>7.16</v>
+        <v>7.159</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.01</v>
+        <v>2.015</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>4.4</v>
+        <v>4.399</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44940.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21.21</v>
+        <v>21.208</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.66</v>
+        <v>16.662</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.04</v>
+        <v>1.038</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>46.31</v>
+        <v>46.314</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>38.61</v>
+        <v>38.612</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.09</v>
+        <v>17.092</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>59.46</v>
+        <v>59.465</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>26.01</v>
+        <v>26.011</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.68</v>
+        <v>11.683</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.33</v>
+        <v>18.331</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.22</v>
+        <v>20.221</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.67</v>
+        <v>19.675</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.12</v>
+        <v>5.122</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.48</v>
+        <v>16.479</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>24.18</v>
+        <v>24.178</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.92</v>
+        <v>13.921</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.174</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.64</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>249.81</v>
+        <v>249.808</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>47.14</v>
+        <v>47.141</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>15.1</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>31.59</v>
+        <v>31.585</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>17.31</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.28</v>
+        <v>2.282</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>30.74</v>
+        <v>30.745</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.62</v>
+        <v>13.623</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.15</v>
+        <v>13.146</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.84</v>
+        <v>13.844</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>20.56</v>
+        <v>20.564</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>53.85</v>
+        <v>53.848</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>8.974</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19.29</v>
+        <v>19.286</v>
       </c>
     </row>
     <row r="4">
@@ -863,31 +863,31 @@
         <v>44940.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.03</v>
+        <v>17.027</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.25</v>
+        <v>13.252</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.792</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>37.16</v>
+        <v>37.156</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>30.92</v>
+        <v>30.925</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.65</v>
+        <v>13.645</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>53.68</v>
+        <v>53.678</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.86</v>
+        <v>20.861</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>9.387</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>14.54</v>
@@ -896,70 +896,70 @@
         <v>15.99</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.78</v>
+        <v>15.776</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.14</v>
+        <v>4.137</v>
       </c>
       <c r="O4" s="4" t="n">
         <v>13.23</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>19.37</v>
+        <v>19.372</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>11.17</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.131</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.488</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>198.46</v>
+        <v>198.459</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>37.83</v>
+        <v>37.834</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.12</v>
+        <v>12.123</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>25.41</v>
+        <v>25.415</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.81</v>
+        <v>13.814</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.81</v>
+        <v>1.805</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>26.49</v>
+        <v>26.487</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.91</v>
+        <v>10.908</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.36</v>
+        <v>10.365</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.14</v>
+        <v>11.144</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.34</v>
+        <v>16.341</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.092</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>48.75</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.22</v>
+        <v>7.216</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.44</v>
+        <v>15.444</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>5.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44940.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.69</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>34.21</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>46.06</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>19.16</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.73</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>181.37</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>34.56</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>23.31</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.56</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.92</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.83</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>41.49</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>14.2</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_259.xlsx
+++ b/DATA_goal/Junction_Flooding_259.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44940.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.04</v>
+        <v>6.044</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.88</v>
+        <v>4.879</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.37</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>13.24</v>
+        <v>13.239</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.09</v>
+        <v>11.094</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.93</v>
+        <v>4.935</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>23.48</v>
+        <v>23.483</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.51</v>
+        <v>7.514</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.42</v>
+        <v>3.418</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.43</v>
+        <v>5.431</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.12</v>
+        <v>6.119</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.62</v>
+        <v>5.618</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.42</v>
+        <v>1.415</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.66</v>
+        <v>4.657</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.05</v>
+        <v>7.049</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.03</v>
+        <v>4.026</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.039</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.152</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>66.92</v>
+        <v>66.923</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.82</v>
+        <v>13.823</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.22</v>
+        <v>4.222</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.24</v>
+        <v>9.242000000000001</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.16</v>
+        <v>5.165</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.659</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.25</v>
+        <v>11.254</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.89</v>
+        <v>3.885</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.01</v>
+        <v>4.006</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.93</v>
+        <v>3.933</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.08</v>
+        <v>6.078</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>21.51</v>
+        <v>21.507</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.66</v>
+        <v>2.661</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.5</v>
+        <v>5.503</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44940.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>34.21</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>46.06</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>181.37</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>34.56</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>14.83</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>41.49</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>14.2</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_259.xlsx
+++ b/DATA_goal/Junction_Flooding_259.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44940.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.044</v>
+        <v>6.04</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.879</v>
+        <v>4.88</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.37</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>13.239</v>
+        <v>13.24</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.094</v>
+        <v>11.09</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.935</v>
+        <v>4.93</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>23.483</v>
+        <v>23.48</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.514</v>
+        <v>7.51</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.418</v>
+        <v>3.42</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.431</v>
+        <v>5.43</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.119</v>
+        <v>6.12</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.618</v>
+        <v>5.62</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.415</v>
+        <v>1.42</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.657</v>
+        <v>4.66</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.049</v>
+        <v>7.05</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.026</v>
+        <v>4.03</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.039</v>
+        <v>0.04</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.152</v>
+        <v>0.15</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>66.923</v>
+        <v>66.92</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.823</v>
+        <v>13.82</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.222</v>
+        <v>4.22</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.242000000000001</v>
+        <v>9.24</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.165</v>
+        <v>5.16</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.659</v>
+        <v>0.66</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.254</v>
+        <v>11.25</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.885</v>
+        <v>3.89</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.006</v>
+        <v>4.01</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.933</v>
+        <v>3.93</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.078</v>
+        <v>6.08</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>21.507</v>
+        <v>21.51</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.661</v>
+        <v>2.66</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.503</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44940.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.69</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>34.21</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>46.06</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>19.16</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.73</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>181.37</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>34.56</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>23.31</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.56</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.92</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.83</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>41.49</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>14.2</v>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
